--- a/data/card.xlsx
+++ b/data/card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\D2_CardGameApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C6251-0AB8-4CD9-A455-4B6558BB081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87D2CC-4195-45E4-AA53-FBEA677F5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16090" yWindow="2160" windowWidth="15440" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45980" yWindow="5120" windowWidth="26400" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
